--- a/src/SampleData.xlsx
+++ b/src/SampleData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16" count="23">
   <si>
     <t>Table 1</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>Singer</t>
+  </si>
+  <si>
+    <t>Madam</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>retired</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1349,8 +1358,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" customWidth="true" style="1" width="16.3516" collapsed="true"/>
+    <col min="8" max="16384" customWidth="true" style="1" width="16.3516" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1381,7 +1390,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="6">
         <v>5</v>
@@ -1417,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
